--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H2">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I2">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J2">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6061559999999999</v>
+        <v>0.6625783333333333</v>
       </c>
       <c r="N2">
-        <v>1.818468</v>
+        <v>1.987735</v>
       </c>
       <c r="O2">
-        <v>0.3160163135757245</v>
+        <v>0.2722635610602984</v>
       </c>
       <c r="P2">
-        <v>0.3250988409043574</v>
+        <v>0.280021914495151</v>
       </c>
       <c r="Q2">
-        <v>0.04509295509999999</v>
+        <v>0.04422356999888888</v>
       </c>
       <c r="R2">
-        <v>0.4058365958999999</v>
+        <v>0.39801212999</v>
       </c>
       <c r="S2">
-        <v>0.0004955493151750486</v>
+        <v>0.0002698796473132963</v>
       </c>
       <c r="T2">
-        <v>0.0005125448226792437</v>
+        <v>0.0002788616459370486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H3">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I3">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J3">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.296278</v>
       </c>
       <c r="O3">
-        <v>0.2252692898249037</v>
+        <v>0.1775534789114854</v>
       </c>
       <c r="P3">
-        <v>0.2317436849533886</v>
+        <v>0.1826129978482772</v>
       </c>
       <c r="Q3">
-        <v>0.03214409362777778</v>
+        <v>0.02883988100577778</v>
       </c>
       <c r="R3">
-        <v>0.28929684265</v>
+        <v>0.259558929052</v>
       </c>
       <c r="S3">
-        <v>0.0003532477201559124</v>
+        <v>0.0001759988376015843</v>
       </c>
       <c r="T3">
-        <v>0.0003653628096029212</v>
+        <v>0.0001818563423554878</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H4">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I4">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J4">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.552724</v>
+        <v>0.5835723333333332</v>
       </c>
       <c r="N4">
-        <v>1.658172</v>
+        <v>1.750717</v>
       </c>
       <c r="O4">
-        <v>0.2881598151380647</v>
+        <v>0.2397987884847841</v>
       </c>
       <c r="P4">
-        <v>0.2964417274431336</v>
+        <v>0.2466320339880352</v>
       </c>
       <c r="Q4">
-        <v>0.04111805956666666</v>
+        <v>0.03895034086422221</v>
       </c>
       <c r="R4">
-        <v>0.3700625361</v>
+        <v>0.3505530677779999</v>
       </c>
       <c r="S4">
-        <v>0.0004518671755799061</v>
+        <v>0.0002376991331869651</v>
       </c>
       <c r="T4">
-        <v>0.0004673645473616731</v>
+        <v>0.0002456101161321664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H5">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I5">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J5">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1607635</v>
+        <v>0.202277</v>
       </c>
       <c r="N5">
-        <v>0.321527</v>
+        <v>0.404554</v>
       </c>
       <c r="O5">
-        <v>0.08381322403396319</v>
+        <v>0.08311870999996575</v>
       </c>
       <c r="P5">
-        <v>0.05748138269106486</v>
+        <v>0.0569914931299551</v>
       </c>
       <c r="Q5">
-        <v>0.01195946470416667</v>
+        <v>0.01350091093933333</v>
       </c>
       <c r="R5">
-        <v>0.07175678822499999</v>
+        <v>0.08100546563599999</v>
       </c>
       <c r="S5">
-        <v>0.0001314286129810543</v>
+        <v>8.239093051074459E-05</v>
       </c>
       <c r="T5">
-        <v>9.062408532984316E-05</v>
+        <v>5.67553493350053E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H6">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I6">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J6">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.16638</v>
+        <v>0.5530713333333334</v>
       </c>
       <c r="N6">
-        <v>0.49914</v>
+        <v>1.659214</v>
       </c>
       <c r="O6">
-        <v>0.08674135742734386</v>
+        <v>0.2272654615434663</v>
       </c>
       <c r="P6">
-        <v>0.08923436400805566</v>
+        <v>0.2337415605385816</v>
       </c>
       <c r="Q6">
-        <v>0.0123772855</v>
+        <v>0.03691456178622222</v>
       </c>
       <c r="R6">
-        <v>0.1113955695</v>
+        <v>0.332231056076</v>
       </c>
       <c r="S6">
-        <v>0.0001360202572585681</v>
+        <v>0.0002252755468597593</v>
       </c>
       <c r="T6">
-        <v>0.0001406852486775229</v>
+        <v>0.0002327730542561228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>23.990009</v>
       </c>
       <c r="I7">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J7">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6061559999999999</v>
+        <v>0.6625783333333333</v>
       </c>
       <c r="N7">
-        <v>1.818468</v>
+        <v>1.987735</v>
       </c>
       <c r="O7">
-        <v>0.3160163135757245</v>
+        <v>0.2722635610602984</v>
       </c>
       <c r="P7">
-        <v>0.3250988409043574</v>
+        <v>0.280021914495151</v>
       </c>
       <c r="Q7">
-        <v>4.847229298467999</v>
+        <v>5.298420059957222</v>
       </c>
       <c r="R7">
-        <v>43.62506368621199</v>
+        <v>47.685780539615</v>
       </c>
       <c r="S7">
-        <v>0.05326865702248573</v>
+        <v>0.03233424477342911</v>
       </c>
       <c r="T7">
-        <v>0.05509557481339067</v>
+        <v>0.03341037683802256</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>23.990009</v>
       </c>
       <c r="I8">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J8">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.296278</v>
       </c>
       <c r="O8">
-        <v>0.2252692898249037</v>
+        <v>0.1775534789114854</v>
       </c>
       <c r="P8">
-        <v>0.2317436849533886</v>
+        <v>0.1826129978482772</v>
       </c>
       <c r="Q8">
         <v>3.455302320722445</v>
@@ -948,10 +948,10 @@
         <v>31.097720886502</v>
       </c>
       <c r="S8">
-        <v>0.037972066699988</v>
+        <v>0.02108639740529353</v>
       </c>
       <c r="T8">
-        <v>0.03927436805484201</v>
+        <v>0.0217881842734762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>23.990009</v>
       </c>
       <c r="I9">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J9">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.552724</v>
+        <v>0.5835723333333332</v>
       </c>
       <c r="N9">
-        <v>1.658172</v>
+        <v>1.750717</v>
       </c>
       <c r="O9">
-        <v>0.2881598151380647</v>
+        <v>0.2397987884847841</v>
       </c>
       <c r="P9">
-        <v>0.2964417274431336</v>
+        <v>0.2466320339880352</v>
       </c>
       <c r="Q9">
-        <v>4.419951244838667</v>
+        <v>4.666635176272555</v>
       </c>
       <c r="R9">
-        <v>39.779561203548</v>
+        <v>41.999716586453</v>
       </c>
       <c r="S9">
-        <v>0.04857308215062856</v>
+        <v>0.02847870164131712</v>
       </c>
       <c r="T9">
-        <v>0.05023895910154572</v>
+        <v>0.02942651545942107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>23.990009</v>
       </c>
       <c r="I10">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J10">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1607635</v>
+        <v>0.202277</v>
       </c>
       <c r="N10">
-        <v>0.321527</v>
+        <v>0.404554</v>
       </c>
       <c r="O10">
-        <v>0.08381322403396319</v>
+        <v>0.08311870999996575</v>
       </c>
       <c r="P10">
-        <v>0.05748138269106486</v>
+        <v>0.0569914931299551</v>
       </c>
       <c r="Q10">
-        <v>1.285572603957167</v>
+        <v>1.617542350164333</v>
       </c>
       <c r="R10">
-        <v>7.713435623743</v>
+        <v>9.705254100986</v>
       </c>
       <c r="S10">
-        <v>0.01412780825931672</v>
+        <v>0.009871246463992817</v>
       </c>
       <c r="T10">
-        <v>0.009741559864141169</v>
+        <v>0.006799850881193609</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>23.990009</v>
       </c>
       <c r="I11">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J11">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.16638</v>
+        <v>0.5530713333333334</v>
       </c>
       <c r="N11">
-        <v>0.49914</v>
+        <v>1.659214</v>
       </c>
       <c r="O11">
-        <v>0.08674135742734386</v>
+        <v>0.2272654615434663</v>
       </c>
       <c r="P11">
-        <v>0.08923436400805566</v>
+        <v>0.2337415605385816</v>
       </c>
       <c r="Q11">
-        <v>1.33048589914</v>
+        <v>4.422728754769556</v>
       </c>
       <c r="R11">
-        <v>11.97437309226</v>
+        <v>39.804558792926</v>
       </c>
       <c r="S11">
-        <v>0.01462138320069615</v>
+        <v>0.02699023341013788</v>
       </c>
       <c r="T11">
-        <v>0.01512284253138126</v>
+        <v>0.02788850877753964</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H12">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I12">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J12">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6061559999999999</v>
+        <v>0.6625783333333333</v>
       </c>
       <c r="N12">
-        <v>1.818468</v>
+        <v>1.987735</v>
       </c>
       <c r="O12">
-        <v>0.3160163135757245</v>
+        <v>0.2722635610602984</v>
       </c>
       <c r="P12">
-        <v>0.3250988409043574</v>
+        <v>0.280021914495151</v>
       </c>
       <c r="Q12">
-        <v>12.374747276668</v>
+        <v>15.94417524618944</v>
       </c>
       <c r="R12">
-        <v>111.372725490012</v>
+        <v>143.497577215705</v>
       </c>
       <c r="S12">
-        <v>0.1359923634372129</v>
+        <v>0.09730124438735066</v>
       </c>
       <c r="T12">
-        <v>0.1406563982013291</v>
+        <v>0.1005395754429786</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H13">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I13">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J13">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.296278</v>
       </c>
       <c r="O13">
-        <v>0.2252692898249037</v>
+        <v>0.1775534789114854</v>
       </c>
       <c r="P13">
-        <v>0.2317436849533886</v>
+        <v>0.1826129978482772</v>
       </c>
       <c r="Q13">
-        <v>8.821223497089111</v>
+        <v>10.39780634731489</v>
       </c>
       <c r="R13">
-        <v>79.391011473802</v>
+        <v>93.580257125834</v>
       </c>
       <c r="S13">
-        <v>0.09694089139410952</v>
+        <v>0.06345386204496382</v>
       </c>
       <c r="T13">
-        <v>0.1002656051949347</v>
+        <v>0.06556570155280933</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H14">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I14">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J14">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.552724</v>
+        <v>0.5835723333333332</v>
       </c>
       <c r="N14">
-        <v>1.658172</v>
+        <v>1.750717</v>
       </c>
       <c r="O14">
-        <v>0.2881598151380647</v>
+        <v>0.2397987884847841</v>
       </c>
       <c r="P14">
-        <v>0.2964417274431336</v>
+        <v>0.2466320339880352</v>
       </c>
       <c r="Q14">
-        <v>11.28392660263867</v>
+        <v>14.04298795085011</v>
       </c>
       <c r="R14">
-        <v>101.555339423748</v>
+        <v>126.386891557651</v>
       </c>
       <c r="S14">
-        <v>0.1240047827431719</v>
+        <v>0.08569902057874385</v>
       </c>
       <c r="T14">
-        <v>0.1282576878549935</v>
+        <v>0.0885512122595845</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H15">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I15">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J15">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1607635</v>
+        <v>0.202277</v>
       </c>
       <c r="N15">
-        <v>0.321527</v>
+        <v>0.404554</v>
       </c>
       <c r="O15">
-        <v>0.08381322403396319</v>
+        <v>0.08311870999996575</v>
       </c>
       <c r="P15">
-        <v>0.05748138269106486</v>
+        <v>0.0569914931299551</v>
       </c>
       <c r="Q15">
-        <v>3.282006090532167</v>
+        <v>4.867560217443666</v>
       </c>
       <c r="R15">
-        <v>19.692036543193</v>
+        <v>29.205361304662</v>
       </c>
       <c r="S15">
-        <v>0.03606762668263349</v>
+        <v>0.02970487083681697</v>
       </c>
       <c r="T15">
-        <v>0.02486974186209422</v>
+        <v>0.02046232893406755</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H16">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I16">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J16">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.16638</v>
+        <v>0.5530713333333334</v>
       </c>
       <c r="N16">
-        <v>0.49914</v>
+        <v>1.659214</v>
       </c>
       <c r="O16">
-        <v>0.08674135742734386</v>
+        <v>0.2272654615434663</v>
       </c>
       <c r="P16">
-        <v>0.08923436400805566</v>
+        <v>0.2337415605385816</v>
       </c>
       <c r="Q16">
-        <v>3.39666761014</v>
+        <v>13.30901693984911</v>
       </c>
       <c r="R16">
-        <v>30.57000849125999</v>
+        <v>119.781152458642</v>
       </c>
       <c r="S16">
-        <v>0.03732770017731985</v>
+        <v>0.08121987433179659</v>
       </c>
       <c r="T16">
-        <v>0.03860790214521862</v>
+        <v>0.08392299332106459</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H17">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I17">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J17">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6061559999999999</v>
+        <v>0.6625783333333333</v>
       </c>
       <c r="N17">
-        <v>1.818468</v>
+        <v>1.987735</v>
       </c>
       <c r="O17">
-        <v>0.3160163135757245</v>
+        <v>0.2722635610602984</v>
       </c>
       <c r="P17">
-        <v>0.3250988409043574</v>
+        <v>0.280021914495151</v>
       </c>
       <c r="Q17">
-        <v>0.4633820157599999</v>
+        <v>0.6199059696425</v>
       </c>
       <c r="R17">
-        <v>2.780292094559999</v>
+        <v>3.719435817855</v>
       </c>
       <c r="S17">
-        <v>0.00509233959196215</v>
+        <v>0.003783050632473323</v>
       </c>
       <c r="T17">
-        <v>0.003511325328960454</v>
+        <v>0.002605970813377767</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H18">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I18">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J18">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.296278</v>
       </c>
       <c r="O18">
-        <v>0.2252692898249037</v>
+        <v>0.1775534789114854</v>
       </c>
       <c r="P18">
-        <v>0.2317436849533886</v>
+        <v>0.1826129978482772</v>
       </c>
       <c r="Q18">
-        <v>0.33031755996</v>
+        <v>0.404264386609</v>
       </c>
       <c r="R18">
-        <v>1.98190535976</v>
+        <v>2.425586319654</v>
       </c>
       <c r="S18">
-        <v>0.003630026913638026</v>
+        <v>0.002467071972753539</v>
       </c>
       <c r="T18">
-        <v>0.002503015601470139</v>
+        <v>0.001699453213845762</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H19">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I19">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J19">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.552724</v>
+        <v>0.5835723333333332</v>
       </c>
       <c r="N19">
-        <v>1.658172</v>
+        <v>1.750717</v>
       </c>
       <c r="O19">
-        <v>0.2881598151380647</v>
+        <v>0.2397987884847841</v>
       </c>
       <c r="P19">
-        <v>0.2964417274431336</v>
+        <v>0.2466320339880352</v>
       </c>
       <c r="Q19">
-        <v>0.4225353890399999</v>
+        <v>0.5459882325634999</v>
       </c>
       <c r="R19">
-        <v>2.53521233424</v>
+        <v>3.275929395381</v>
       </c>
       <c r="S19">
-        <v>0.004643455329366842</v>
+        <v>0.003331958764187278</v>
       </c>
       <c r="T19">
-        <v>0.003201805774626232</v>
+        <v>0.002295234226133908</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H20">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I20">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J20">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1607635</v>
+        <v>0.202277</v>
       </c>
       <c r="N20">
-        <v>0.321527</v>
+        <v>0.404554</v>
       </c>
       <c r="O20">
-        <v>0.08381322403396319</v>
+        <v>0.08311870999996575</v>
       </c>
       <c r="P20">
-        <v>0.05748138269106486</v>
+        <v>0.0569914931299551</v>
       </c>
       <c r="Q20">
-        <v>0.12289726521</v>
+        <v>0.1892496532305</v>
       </c>
       <c r="R20">
-        <v>0.49158906084</v>
+        <v>0.756998612922</v>
       </c>
       <c r="S20">
-        <v>0.001350580273052493</v>
+        <v>0.00115491873834008</v>
       </c>
       <c r="T20">
-        <v>0.0006208445235465612</v>
+        <v>0.0005303805167365011</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H21">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I21">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J21">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.16638</v>
+        <v>0.5530713333333334</v>
       </c>
       <c r="N21">
-        <v>0.49914</v>
+        <v>1.659214</v>
       </c>
       <c r="O21">
-        <v>0.08674135742734386</v>
+        <v>0.2272654615434663</v>
       </c>
       <c r="P21">
-        <v>0.08923436400805566</v>
+        <v>0.2337415605385816</v>
       </c>
       <c r="Q21">
-        <v>0.1271908548</v>
+        <v>0.5174516037170001</v>
       </c>
       <c r="R21">
-        <v>0.7631451287999999</v>
+        <v>3.104709622302</v>
       </c>
       <c r="S21">
-        <v>0.001397764702998341</v>
+        <v>0.003157810559309261</v>
       </c>
       <c r="T21">
-        <v>0.0009638019061634965</v>
+        <v>0.002175271480930697</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H22">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I22">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J22">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6061559999999999</v>
+        <v>0.6625783333333333</v>
       </c>
       <c r="N22">
-        <v>1.818468</v>
+        <v>1.987735</v>
       </c>
       <c r="O22">
-        <v>0.3160163135757245</v>
+        <v>0.2722635610602984</v>
       </c>
       <c r="P22">
-        <v>0.3250988409043574</v>
+        <v>0.280021914495151</v>
       </c>
       <c r="Q22">
-        <v>11.025736794016</v>
+        <v>22.70748289667055</v>
       </c>
       <c r="R22">
-        <v>99.231631146144</v>
+        <v>204.367346070035</v>
       </c>
       <c r="S22">
-        <v>0.1211674042088886</v>
+        <v>0.138575141619732</v>
       </c>
       <c r="T22">
-        <v>0.125322997737998</v>
+        <v>0.143187129754835</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H23">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I23">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J23">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.296278</v>
       </c>
       <c r="O23">
-        <v>0.2252692898249037</v>
+        <v>0.1775534789114854</v>
       </c>
       <c r="P23">
-        <v>0.2317436849533886</v>
+        <v>0.1826129978482772</v>
       </c>
       <c r="Q23">
-        <v>7.859593921847113</v>
+        <v>14.80841787981311</v>
       </c>
       <c r="R23">
-        <v>70.73634529662401</v>
+        <v>133.275760918318</v>
       </c>
       <c r="S23">
-        <v>0.0863730570970123</v>
+        <v>0.09037014865087295</v>
       </c>
       <c r="T23">
-        <v>0.08933533329253887</v>
+        <v>0.09337780246579046</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H24">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I24">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J24">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.552724</v>
+        <v>0.5835723333333332</v>
       </c>
       <c r="N24">
-        <v>1.658172</v>
+        <v>1.750717</v>
       </c>
       <c r="O24">
-        <v>0.2881598151380647</v>
+        <v>0.2397987884847841</v>
       </c>
       <c r="P24">
-        <v>0.2964417274431336</v>
+        <v>0.2466320339880352</v>
       </c>
       <c r="Q24">
-        <v>10.05382994433067</v>
+        <v>19.99983716864188</v>
       </c>
       <c r="R24">
-        <v>90.48446949897601</v>
+        <v>179.998534517777</v>
       </c>
       <c r="S24">
-        <v>0.1104866277393175</v>
+        <v>0.1220514083673489</v>
       </c>
       <c r="T24">
-        <v>0.1142759101646065</v>
+        <v>0.1261134619267636</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H25">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I25">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J25">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1607635</v>
+        <v>0.202277</v>
       </c>
       <c r="N25">
-        <v>0.321527</v>
+        <v>0.404554</v>
       </c>
       <c r="O25">
-        <v>0.08381322403396319</v>
+        <v>0.08311870999996575</v>
       </c>
       <c r="P25">
-        <v>0.05748138269106486</v>
+        <v>0.0569914931299551</v>
       </c>
       <c r="Q25">
-        <v>2.924224188302667</v>
+        <v>6.932314696712332</v>
       </c>
       <c r="R25">
-        <v>17.545345129816</v>
+        <v>41.59388818027399</v>
       </c>
       <c r="S25">
-        <v>0.03213578020597943</v>
+        <v>0.04230528303030513</v>
       </c>
       <c r="T25">
-        <v>0.02215861235595308</v>
+        <v>0.02914217744862243</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H26">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I26">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J26">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.16638</v>
+        <v>0.5530713333333334</v>
       </c>
       <c r="N26">
-        <v>0.49914</v>
+        <v>1.659214</v>
       </c>
       <c r="O26">
-        <v>0.08674135742734386</v>
+        <v>0.2272654615434663</v>
       </c>
       <c r="P26">
-        <v>0.08923436400805566</v>
+        <v>0.2337415605385816</v>
       </c>
       <c r="Q26">
-        <v>3.026386091680001</v>
+        <v>18.95452539041489</v>
       </c>
       <c r="R26">
-        <v>27.23747482512</v>
+        <v>170.590728513734</v>
       </c>
       <c r="S26">
-        <v>0.03325848908907095</v>
+        <v>0.1156722676953628</v>
       </c>
       <c r="T26">
-        <v>0.03439913217661478</v>
+        <v>0.1195220139047905</v>
       </c>
     </row>
   </sheetData>
